--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="62">
   <si>
     <t>Profile</t>
   </si>
@@ -98,16 +98,52 @@
     <t>HLA_C</t>
   </si>
   <si>
+    <t>hla-dpa1</t>
+  </si>
+  <si>
+    <t>HLA_DPA1</t>
+  </si>
+  <si>
     <t>hla-dpb1</t>
   </si>
   <si>
     <t>HLA_DPB1</t>
   </si>
   <si>
+    <t>hla-dqa1</t>
+  </si>
+  <si>
+    <t>HLA_DQA1</t>
+  </si>
+  <si>
+    <t>hla-dqb1</t>
+  </si>
+  <si>
+    <t>HLA_DQB1</t>
+  </si>
+  <si>
     <t>hla-drb1</t>
   </si>
   <si>
     <t>HLA_DRB1</t>
+  </si>
+  <si>
+    <t>hla-drb3</t>
+  </si>
+  <si>
+    <t>HLA_DRB3</t>
+  </si>
+  <si>
+    <t>hla-drb4</t>
+  </si>
+  <si>
+    <t>HLA_DRB4</t>
+  </si>
+  <si>
+    <t>hla-drb5</t>
+  </si>
+  <si>
+    <t>HLA_DRB5</t>
   </si>
   <si>
     <t>hla-genotype</t>
@@ -295,7 +331,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1394,13 +1430,13 @@
         <v>35</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>14</v>
@@ -1423,28 +1459,28 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>18</v>
@@ -1458,10 +1494,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>14</v>
@@ -1470,13 +1506,13 @@
         <v>14</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>17</v>
@@ -1493,36 +1529,1086 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E52" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E59" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E60" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E61" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B62" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="B35" t="s" s="2">
+      <c r="C62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E62" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="C35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D35" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E35" t="s" s="2">
+      <c r="F62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="F35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K35" t="s" s="2">
+      <c r="B63" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="D63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E63" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="D65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E65" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="60">
   <si>
     <t>Profile</t>
   </si>
@@ -69,12 +69,6 @@
   </si>
   <si>
     <t>optional</t>
-  </si>
-  <si>
-    <t>To Be Determined Codes#conclusion-string</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
   <si>
     <t>LOINC#48018-6</t>
@@ -331,7 +325,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -430,7 +424,7 @@
         <v>14</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>18</v>
@@ -456,7 +450,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>14</v>
@@ -491,7 +485,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>14</v>
@@ -514,25 +508,25 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>17</v>
@@ -549,25 +543,25 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>17</v>
@@ -587,7 +581,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>14</v>
@@ -596,7 +590,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>14</v>
@@ -605,7 +599,7 @@
         <v>14</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>18</v>
@@ -622,7 +616,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>14</v>
@@ -654,25 +648,25 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>25</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>17</v>
@@ -701,7 +695,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>14</v>
@@ -724,25 +718,25 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>17</v>
@@ -762,7 +756,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>14</v>
@@ -771,7 +765,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>14</v>
@@ -780,7 +774,7 @@
         <v>14</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>18</v>
@@ -794,25 +788,25 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>27</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>17</v>
@@ -841,7 +835,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>14</v>
@@ -876,7 +870,7 @@
         <v>14</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>14</v>
@@ -899,25 +893,25 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>17</v>
@@ -934,28 +928,28 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>29</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>18</v>
@@ -981,7 +975,7 @@
         <v>14</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>14</v>
@@ -1016,7 +1010,7 @@
         <v>14</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>14</v>
@@ -1051,7 +1045,7 @@
         <v>14</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>14</v>
@@ -1130,7 +1124,7 @@
         <v>14</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>18</v>
@@ -1156,7 +1150,7 @@
         <v>14</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>14</v>
@@ -1191,7 +1185,7 @@
         <v>14</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>14</v>
@@ -1214,25 +1208,25 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>17</v>
@@ -1249,25 +1243,25 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>33</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>17</v>
@@ -1296,7 +1290,7 @@
         <v>14</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>14</v>
@@ -1305,7 +1299,7 @@
         <v>14</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>18</v>
@@ -1354,25 +1348,25 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>17</v>
@@ -1392,7 +1386,7 @@
         <v>14</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>14</v>
@@ -1401,7 +1395,7 @@
         <v>14</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>14</v>
@@ -1424,25 +1418,25 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>35</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>17</v>
@@ -1471,7 +1465,7 @@
         <v>14</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>14</v>
@@ -1480,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>18</v>
@@ -1494,25 +1488,25 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>17</v>
@@ -1532,7 +1526,7 @@
         <v>14</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>14</v>
@@ -1541,7 +1535,7 @@
         <v>14</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>14</v>
@@ -1567,7 +1561,7 @@
         <v>14</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>14</v>
@@ -1576,7 +1570,7 @@
         <v>14</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>14</v>
@@ -1599,25 +1593,25 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>17</v>
@@ -1634,28 +1628,28 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>18</v>
@@ -1672,7 +1666,7 @@
         <v>14</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>14</v>
@@ -1681,7 +1675,7 @@
         <v>14</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>14</v>
@@ -1707,7 +1701,7 @@
         <v>14</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>14</v>
@@ -1716,7 +1710,7 @@
         <v>14</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>14</v>
@@ -1742,7 +1736,7 @@
         <v>14</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>14</v>
@@ -1751,7 +1745,7 @@
         <v>14</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>14</v>
@@ -1774,10 +1768,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>13</v>
@@ -1812,7 +1806,7 @@
         <v>14</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>14</v>
@@ -1830,7 +1824,7 @@
         <v>14</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>18</v>
@@ -1847,7 +1841,7 @@
         <v>14</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>14</v>
@@ -1856,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>14</v>
@@ -1882,7 +1876,7 @@
         <v>14</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>14</v>
@@ -1891,7 +1885,7 @@
         <v>14</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>14</v>
@@ -1914,25 +1908,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E46" t="s" s="2">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>17</v>
@@ -1949,25 +1943,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>17</v>
@@ -1987,7 +1981,7 @@
         <v>14</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>14</v>
@@ -1996,7 +1990,7 @@
         <v>14</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>14</v>
@@ -2005,7 +1999,7 @@
         <v>14</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>18</v>
@@ -2022,7 +2016,7 @@
         <v>14</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>14</v>
@@ -2054,10 +2048,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>14</v>
@@ -2066,13 +2060,13 @@
         <v>14</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>17</v>
@@ -2089,28 +2083,28 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>18</v>
@@ -2124,19 +2118,19 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>14</v>
@@ -2159,28 +2153,28 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>18</v>
@@ -2189,426 +2183,6 @@
         <v>14</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D54" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E54" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D55" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E55" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D56" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E56" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D57" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E57" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D58" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E58" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D59" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E59" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D60" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E60" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D61" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E61" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D62" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E62" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="F62" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="D63" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E63" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F63" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D64" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E64" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="F64" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="D65" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E65" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K65" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="62">
   <si>
     <t>Profile</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>optional</t>
+  </si>
+  <si>
+    <t>To Be Determined Codes#conclusion-string</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
   <si>
     <t>LOINC#48018-6</t>
@@ -325,7 +331,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -424,7 +430,7 @@
         <v>14</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>18</v>
@@ -450,7 +456,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>14</v>
@@ -485,7 +491,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>14</v>
@@ -508,25 +514,25 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="C6" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>15</v>
-      </c>
       <c r="F6" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>17</v>
@@ -543,25 +549,25 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>17</v>
@@ -581,7 +587,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>14</v>
@@ -590,16 +596,16 @@
         <v>14</v>
       </c>
       <c r="E8" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>17</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>18</v>
@@ -616,7 +622,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>14</v>
@@ -648,25 +654,25 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>25</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>17</v>
@@ -695,7 +701,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>14</v>
@@ -718,25 +724,25 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>17</v>
@@ -756,7 +762,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>14</v>
@@ -765,7 +771,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>14</v>
@@ -774,7 +780,7 @@
         <v>14</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>18</v>
@@ -788,25 +794,25 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>27</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>17</v>
@@ -835,7 +841,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>14</v>
@@ -870,7 +876,7 @@
         <v>14</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>14</v>
@@ -893,25 +899,25 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>17</v>
@@ -928,28 +934,28 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>29</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>18</v>
@@ -975,7 +981,7 @@
         <v>14</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>14</v>
@@ -1010,7 +1016,7 @@
         <v>14</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>14</v>
@@ -1045,7 +1051,7 @@
         <v>14</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>14</v>
@@ -1124,7 +1130,7 @@
         <v>14</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>18</v>
@@ -1150,7 +1156,7 @@
         <v>14</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>14</v>
@@ -1185,7 +1191,7 @@
         <v>14</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>14</v>
@@ -1208,25 +1214,25 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>17</v>
@@ -1243,25 +1249,25 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>33</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>17</v>
@@ -1290,16 +1296,16 @@
         <v>14</v>
       </c>
       <c r="E28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="F28" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>17</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>18</v>
@@ -1348,25 +1354,25 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>17</v>
@@ -1386,7 +1392,7 @@
         <v>14</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>14</v>
@@ -1395,7 +1401,7 @@
         <v>14</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>14</v>
@@ -1418,25 +1424,25 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>35</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>17</v>
@@ -1465,7 +1471,7 @@
         <v>14</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>14</v>
@@ -1474,7 +1480,7 @@
         <v>14</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>18</v>
@@ -1488,25 +1494,25 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>17</v>
@@ -1526,7 +1532,7 @@
         <v>14</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>14</v>
@@ -1535,7 +1541,7 @@
         <v>14</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>14</v>
@@ -1561,7 +1567,7 @@
         <v>14</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>14</v>
@@ -1570,7 +1576,7 @@
         <v>14</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>14</v>
@@ -1593,25 +1599,25 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>17</v>
@@ -1628,28 +1634,28 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>18</v>
@@ -1666,7 +1672,7 @@
         <v>14</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>14</v>
@@ -1675,7 +1681,7 @@
         <v>14</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>14</v>
@@ -1701,7 +1707,7 @@
         <v>14</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>14</v>
@@ -1710,7 +1716,7 @@
         <v>14</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>14</v>
@@ -1736,7 +1742,7 @@
         <v>14</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>14</v>
@@ -1745,7 +1751,7 @@
         <v>14</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>14</v>
@@ -1768,10 +1774,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>13</v>
@@ -1806,7 +1812,7 @@
         <v>14</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>14</v>
@@ -1824,7 +1830,7 @@
         <v>14</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>18</v>
@@ -1841,7 +1847,7 @@
         <v>14</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>14</v>
@@ -1850,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>14</v>
@@ -1876,7 +1882,7 @@
         <v>14</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>14</v>
@@ -1885,7 +1891,7 @@
         <v>14</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>14</v>
@@ -1908,25 +1914,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E46" t="s" s="2">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>17</v>
@@ -1943,25 +1949,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>17</v>
@@ -1981,7 +1987,7 @@
         <v>14</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>14</v>
@@ -1990,16 +1996,16 @@
         <v>14</v>
       </c>
       <c r="E48" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H48" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>17</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>18</v>
@@ -2016,7 +2022,7 @@
         <v>14</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>14</v>
@@ -2048,10 +2054,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>14</v>
@@ -2060,13 +2066,13 @@
         <v>14</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>17</v>
@@ -2083,28 +2089,28 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>18</v>
@@ -2118,19 +2124,19 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>14</v>
@@ -2153,36 +2159,456 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E59" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E60" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E61" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E62" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="D63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E63" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B64" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="C64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="C53" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="D53" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E53" t="s" s="2">
+      <c r="F64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="B65" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="C65" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H53" t="s" s="2">
+      <c r="D65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E65" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F65" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="I53" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K53" t="s" s="2">
+      <c r="G65" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>14</v>
       </c>
     </row>
